--- a/krafton_server/krafton_server/datasheet/server_parameter.xlsx
+++ b/krafton_server/krafton_server/datasheet/server_parameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js_choi\Desktop\windows_socket\krafton_server\krafton_server\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68691ECF-DA68-4F9F-B0C3-16DD220862BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01EC855-A16D-425B-8EC5-3A221F4E0790}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35970" yWindow="2670" windowWidth="12420" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="server_parameter" sheetId="1" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1036,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
